--- a/split_data/invalid/mio_data.xlsx
+++ b/split_data/invalid/mio_data.xlsx
@@ -1970,7 +1970,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
@@ -1993,7 +1997,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
@@ -2016,7 +2024,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -2039,7 +2051,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
@@ -2062,7 +2078,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
@@ -2085,7 +2105,11 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
